--- a/0 all list/DSA---Level-1-2023-07-10.xlsx
+++ b/0 all list/DSA---Level-1-2023-07-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data structure\0 all list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11740C13-C075-4489-B9BF-C45B7979D6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4510B4-62B5-4650-AA16-082403D7C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA---Level-1-2023-07-10" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1733">
   <si>
     <t>Playlist URL</t>
   </si>
@@ -14236,7 +14236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -15013,8 +15013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B7:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22347,10 +22347,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:D68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22358,398 +22358,584 @@
     <col min="2" max="2" width="56.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1731</v>
+      </c>
       <c r="B7" t="s">
         <v>539</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1731</v>
+      </c>
       <c r="B8" t="s">
         <v>541</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1731</v>
+      </c>
       <c r="B9" t="s">
         <v>543</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1731</v>
+      </c>
       <c r="B10" t="s">
         <v>545</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1731</v>
+      </c>
       <c r="B11" t="s">
         <v>547</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1731</v>
+      </c>
       <c r="B12" t="s">
         <v>547</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1731</v>
+      </c>
       <c r="B13" t="s">
         <v>549</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1731</v>
+      </c>
       <c r="B14" t="s">
         <v>549</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1731</v>
+      </c>
       <c r="B15" t="s">
         <v>551</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1731</v>
+      </c>
       <c r="B16" t="s">
         <v>553</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1731</v>
+      </c>
       <c r="B17" t="s">
         <v>553</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1731</v>
+      </c>
       <c r="B18" t="s">
         <v>555</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1731</v>
+      </c>
       <c r="B19" t="s">
         <v>557</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1731</v>
+      </c>
       <c r="B20" t="s">
         <v>557</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1731</v>
+      </c>
       <c r="B21" t="s">
         <v>557</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1731</v>
+      </c>
       <c r="B22" t="s">
         <v>559</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1731</v>
+      </c>
       <c r="B23" t="s">
         <v>561</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1731</v>
+      </c>
       <c r="B24" t="s">
         <v>561</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1731</v>
+      </c>
       <c r="B25" t="s">
         <v>561</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1731</v>
+      </c>
       <c r="B26" t="s">
         <v>563</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1731</v>
+      </c>
       <c r="B27" t="s">
         <v>563</v>
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1731</v>
+      </c>
       <c r="B28" t="s">
         <v>565</v>
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1731</v>
+      </c>
       <c r="B29" t="s">
         <v>565</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1731</v>
+      </c>
       <c r="B30" t="s">
         <v>565</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1731</v>
+      </c>
       <c r="B31" t="s">
         <v>567</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1731</v>
+      </c>
       <c r="B32" t="s">
         <v>569</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1731</v>
+      </c>
       <c r="B33" t="s">
         <v>569</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1731</v>
+      </c>
       <c r="B34" t="s">
         <v>571</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1731</v>
+      </c>
       <c r="B35" t="s">
         <v>573</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1731</v>
+      </c>
       <c r="B36" t="s">
         <v>573</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1731</v>
+      </c>
       <c r="B37" t="s">
         <v>573</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1731</v>
+      </c>
       <c r="B38" t="s">
         <v>575</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1731</v>
+      </c>
       <c r="B39" t="s">
         <v>577</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1731</v>
+      </c>
       <c r="B40" t="s">
         <v>577</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1731</v>
+      </c>
       <c r="B41" t="s">
         <v>577</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1731</v>
+      </c>
       <c r="B42" t="s">
         <v>577</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1731</v>
+      </c>
       <c r="B43" t="s">
         <v>579</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1731</v>
+      </c>
       <c r="B44" t="s">
         <v>581</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1731</v>
+      </c>
       <c r="B45" t="s">
         <v>581</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1731</v>
+      </c>
       <c r="B46" t="s">
         <v>583</v>
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1731</v>
+      </c>
       <c r="B47" t="s">
         <v>585</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1731</v>
+      </c>
       <c r="B48" t="s">
         <v>589</v>
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1731</v>
+      </c>
       <c r="B49" t="s">
         <v>589</v>
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1731</v>
+      </c>
       <c r="B50" t="s">
         <v>591</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1731</v>
+      </c>
       <c r="B51" t="s">
         <v>593</v>
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1731</v>
+      </c>
       <c r="B52" t="s">
         <v>775</v>
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1731</v>
+      </c>
       <c r="B53" t="s">
         <v>777</v>
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1731</v>
+      </c>
       <c r="B54" t="s">
         <v>779</v>
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1731</v>
+      </c>
       <c r="B55" t="s">
         <v>781</v>
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1731</v>
+      </c>
       <c r="B56" t="s">
         <v>783</v>
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1731</v>
+      </c>
       <c r="B57" t="s">
         <v>785</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1731</v>
+      </c>
       <c r="B58" t="s">
         <v>787</v>
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1731</v>
+      </c>
       <c r="B59" t="s">
         <v>789</v>
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1731</v>
+      </c>
       <c r="B60" t="s">
         <v>1366</v>
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1731</v>
+      </c>
       <c r="B61" t="s">
         <v>1368</v>
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1731</v>
+      </c>
       <c r="B62" t="s">
         <v>1370</v>
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1731</v>
+      </c>
       <c r="B63" t="s">
         <v>1374</v>
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1731</v>
+      </c>
       <c r="B64" t="s">
         <v>1376</v>
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1731</v>
+      </c>
       <c r="B65" t="s">
         <v>1384</v>
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1731</v>
+      </c>
       <c r="B66" t="s">
         <v>1386</v>
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1731</v>
+      </c>
       <c r="B67" t="s">
         <v>1388</v>
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1731</v>
+      </c>
       <c r="B68" t="s">
         <v>1502</v>
       </c>
@@ -22757,5 +22943,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/0 all list/DSA---Level-1-2023-07-10.xlsx
+++ b/0 all list/DSA---Level-1-2023-07-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data structure\0 all list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4510B4-62B5-4650-AA16-082403D7C02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489B8DDE-4A33-4498-9BE3-0FD7EB932AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSA---Level-1-2023-07-10" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1734">
   <si>
     <t>Playlist URL</t>
   </si>
@@ -5250,6 +5250,9 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>not done</t>
   </si>
 </sst>
 </file>
@@ -13927,8 +13930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14078,7 +14081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -14236,8 +14239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14437,156 +14440,234 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1731</v>
+      </c>
       <c r="B23" t="s">
         <v>1350</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1731</v>
+      </c>
       <c r="B24" t="s">
         <v>1352</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1731</v>
+      </c>
       <c r="B25" t="s">
         <v>1519</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1731</v>
+      </c>
       <c r="B26" t="s">
         <v>1392</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1731</v>
+      </c>
       <c r="B27" t="s">
         <v>1390</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1731</v>
+      </c>
       <c r="B28" t="s">
         <v>1394</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1731</v>
+      </c>
       <c r="B29" t="s">
         <v>1420</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1731</v>
+      </c>
       <c r="B30" t="s">
         <v>1422</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1731</v>
+      </c>
       <c r="B31" t="s">
         <v>1424</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1731</v>
+      </c>
       <c r="B32" t="s">
         <v>1426</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1731</v>
+      </c>
       <c r="B33" t="s">
         <v>1520</v>
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1731</v>
+      </c>
       <c r="B34" t="s">
         <v>1428</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1731</v>
+      </c>
       <c r="B35" t="s">
         <v>1430</v>
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1731</v>
+      </c>
       <c r="B36" t="s">
         <v>1432</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1731</v>
+      </c>
       <c r="B37" t="s">
         <v>1434</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1731</v>
+      </c>
       <c r="B38" t="s">
         <v>1436</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1731</v>
+      </c>
       <c r="B39" t="s">
         <v>1438</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1731</v>
+      </c>
       <c r="B40" t="s">
         <v>1442</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1731</v>
+      </c>
       <c r="B41" t="s">
         <v>1440</v>
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1731</v>
+      </c>
       <c r="B42" t="s">
         <v>1444</v>
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1731</v>
+      </c>
       <c r="B43" t="s">
         <v>1521</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1731</v>
+      </c>
       <c r="B44" t="s">
         <v>1522</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1731</v>
+      </c>
       <c r="B45" t="s">
         <v>1523</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1731</v>
+      </c>
       <c r="B46" t="s">
         <v>1524</v>
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1731</v>
+      </c>
       <c r="B47" t="s">
         <v>1525</v>
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1731</v>
+      </c>
       <c r="B48" t="s">
         <v>1459</v>
       </c>
@@ -15013,7 +15094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B7:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -15461,94 +15542,97 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="B1:D53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>1597</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>1598</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1599</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>1600</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>1601</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1733</v>
+      </c>
       <c r="B12" t="s">
         <v>1602</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>1603</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>1604</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>1605</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>1606</v>
       </c>
@@ -15778,6 +15862,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22349,7 +22434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
